--- a/all_annotated/SYKE_Q1_2015_1.xlsx
+++ b/all_annotated/SYKE_Q1_2015_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77011999-126F-4B9A-B2CF-A5BB24C444B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930BBA1-4FB5-104A-9A1F-1B5963D88EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32880" yWindow="3720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Asker</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Well, FX impact, as in terms of it doesn't impact our operating margin at all. EPS is impacted by $0.08 for the FX year-over-year.</t>
-  </si>
-  <si>
-    <t>No, not really, It's just a revenue issue. Not rather a margin issue. You could see that the margin outlook remains unchanged.</t>
   </si>
 </sst>
 </file>
@@ -591,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="57.44140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="57.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -666,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -698,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -730,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -762,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -794,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -826,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -858,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -890,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -922,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -954,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -986,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="288" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="288" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1335,70 +1332,6 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
         <v>2</v>
       </c>
     </row>
